--- a/results/mp/logistic/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
@@ -55,9 +61,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -67,30 +70,27 @@
     <t>sc</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -103,22 +103,22 @@
     <t>negative</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>love</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>sharing</t>
   </si>
   <si>
     <t>great</t>
@@ -127,136 +127,130 @@
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>data</t>
   </si>
   <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
 </sst>
 </file>
@@ -614,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +619,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7636986301369864</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C3">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6538461538461539</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.631578947368421</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5135135135135135</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -1001,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8511749347258486</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4444444444444444</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.8301886792452831</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.423728813559322</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3546511627906977</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3529411764705883</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
@@ -1360,10 +1354,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2363636363636364</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2080536912751678</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.7727272727272727</v>
+        <v>0.75625</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.09523809523809523</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7682926829268293</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008064516129032258</v>
+        <v>0.009035172636334301</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0.22</v>
@@ -1551,19 +1545,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.7647058823529411</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,37 +1577,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006563525550867323</v>
+        <v>0.007487131492746842</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="F21">
-        <v>0.5800000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.7625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,31 +1627,31 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005663939584644431</v>
+        <v>0.004079071226859115</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="F22">
-        <v>0.4399999999999999</v>
+        <v>0.48</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3160</v>
+        <v>3174</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.7575757575757576</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
         <v>25</v>
@@ -1675,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1677,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,13 +1703,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,13 +1729,13 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.7021276595744681</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1753,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1761,13 +1755,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.6976744186046512</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1779,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1787,13 +1781,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.6825396825396826</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1805,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1813,13 +1807,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6818181818181818</v>
+        <v>0.64</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1831,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1839,13 +1833,13 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1857,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1865,13 +1859,13 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1891,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1917,13 +1911,13 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6264705882352941</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1935,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1943,13 +1937,13 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1969,13 +1963,13 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0.6071428571428571</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1995,13 +1989,13 @@
         <v>61</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2021,13 +2015,13 @@
         <v>62</v>
       </c>
       <c r="K36">
-        <v>0.5830508474576271</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L36">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="M36">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2039,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2047,13 +2041,13 @@
         <v>63</v>
       </c>
       <c r="K37">
-        <v>0.58</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2065,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2073,13 +2067,13 @@
         <v>64</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2091,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2099,13 +2093,13 @@
         <v>65</v>
       </c>
       <c r="K39">
-        <v>0.5690376569037657</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L39">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2117,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2125,13 +2119,13 @@
         <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5652173913043478</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2143,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2151,13 +2145,13 @@
         <v>67</v>
       </c>
       <c r="K41">
-        <v>0.5531914893617021</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L41">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2169,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2177,13 +2171,13 @@
         <v>68</v>
       </c>
       <c r="K42">
-        <v>0.5454545454545454</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2195,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2203,13 +2197,13 @@
         <v>69</v>
       </c>
       <c r="K43">
-        <v>0.5357142857142857</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2221,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2229,13 +2223,13 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>0.5142857142857142</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2247,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2255,13 +2249,13 @@
         <v>71</v>
       </c>
       <c r="K45">
-        <v>0.4719101123595505</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2273,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2281,13 +2275,13 @@
         <v>72</v>
       </c>
       <c r="K46">
-        <v>0.3809523809523809</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2299,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2307,13 +2301,13 @@
         <v>73</v>
       </c>
       <c r="K47">
-        <v>0.3555555555555556</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2325,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2333,13 +2327,13 @@
         <v>74</v>
       </c>
       <c r="K48">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2351,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2359,13 +2353,13 @@
         <v>75</v>
       </c>
       <c r="K49">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2377,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2411,13 +2405,13 @@
         <v>77</v>
       </c>
       <c r="K51">
-        <v>0.2711864406779661</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2437,13 +2431,13 @@
         <v>78</v>
       </c>
       <c r="K52">
-        <v>0.265625</v>
+        <v>0.203125</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2455,85 +2449,33 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="K53">
-        <v>0.1944444444444444</v>
+        <v>0.00439146800501882</v>
       </c>
       <c r="L53">
         <v>14</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54">
-        <v>0.01903695408734602</v>
-      </c>
-      <c r="L54">
-        <v>17</v>
-      </c>
-      <c r="M54">
-        <v>18</v>
-      </c>
-      <c r="N54">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O54">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55">
-        <v>0.007225887527489789</v>
-      </c>
-      <c r="L55">
-        <v>23</v>
-      </c>
-      <c r="M55">
-        <v>41</v>
-      </c>
-      <c r="N55">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O55">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>3160</v>
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
